--- a/PCB/EEE3088_TEAM_26/BOM_TO_SUBMIT.xlsx
+++ b/PCB/EEE3088_TEAM_26/BOM_TO_SUBMIT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zwivh\OneDrive\Desktop\Repositories\EEE3088F-ENVIRO-HAT-SENSOR\PCB\EEE3088_TEAM_26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70BB476-5ECD-4C0B-8469-CDF7BA2D3185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8B8885-8150-4302-8F6E-ABD873EE9DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{A5E06026-5FD5-4E16-AA6F-79CD172404A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{A5E06026-5FD5-4E16-AA6F-79CD172404A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>Footprint</t>
   </si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t>C17414</t>
-  </si>
-  <si>
-    <t>C22764</t>
   </si>
   <si>
     <t>C52923</t>
@@ -658,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2407BF0-D469-42A8-8768-DE7E0C5225D9}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +700,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -723,7 +720,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -1063,7 +1060,7 @@
         <v>0.01</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -1083,7 +1080,7 @@
         <v>0.01</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1">
         <v>5</v>
